--- a/canada-links.xlsx
+++ b/canada-links.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document-processor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Document-processor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2867A0ED-CE36-4501-B900-37B171C8C25A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B47009A7-5C55-406F-A215-9113421369B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="851" uniqueCount="770">
   <si>
     <t>page-name</t>
   </si>
@@ -33,9 +33,6 @@
     <t>URL</t>
   </si>
   <si>
-    <t>Federal</t>
-  </si>
-  <si>
     <t>Express Entry</t>
   </si>
   <si>
@@ -46,13 +43,2305 @@
   </si>
   <si>
     <t>Express Entry Who can apply</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/who-can-apply/federal-skilled-workers.html</t>
+  </si>
+  <si>
+    <t>federal-skilled-workers</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/who-can-apply/canadian-experience-class.html</t>
+  </si>
+  <si>
+    <t>canadian-experience-class</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/who-can-apply/federal-skilled-trades.html</t>
+  </si>
+  <si>
+    <t>Federal Skilled Trades Program</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/provincial-nominees/express-entry.html</t>
+  </si>
+  <si>
+    <t>provincial-nominees/express-entry</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/provincial-nominees/express-entry/eligibility.html</t>
+  </si>
+  <si>
+    <t>provincial-nominees/express-entry/eligibility</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/provincial-nominees/express-entry/get-confirm-nomination.html</t>
+  </si>
+  <si>
+    <t>provincial-nominees/express-entry/get-confirm-nomination</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/provincial-nominees/express-entry/apply-permanent-residence.html</t>
+  </si>
+  <si>
+    <t>provincial-nominees/express-entry/apply-permanent-residence</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/check-score.html</t>
+  </si>
+  <si>
+    <t>express-entry/check-score</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/check-score/crs-criteria.html</t>
+  </si>
+  <si>
+    <t>/express-entry/check-score/crs-criteria</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/documents.html</t>
+  </si>
+  <si>
+    <t>express-entry/documents</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/documents/language-test.html</t>
+  </si>
+  <si>
+    <t>express-entry/documents/language-test</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/documents/education-assessment.html#wb-cont</t>
+  </si>
+  <si>
+    <t>express-entry/documents/education-assessment</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/documents/job-offer.html</t>
+  </si>
+  <si>
+    <t>express-entry/documents/job-offer</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/documents/proof-funds.html</t>
+  </si>
+  <si>
+    <t>express-entry/documents/proof-funds</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/documents/police-certificates.html#wb-cont</t>
+  </si>
+  <si>
+    <t>express-entry/documents/police-certificates</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/application/medical-police/police-certificates/how.html</t>
+  </si>
+  <si>
+    <t>medical-police/police-certificates</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/application/medical-police/who.html</t>
+  </si>
+  <si>
+    <t>application/medical-police/who</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/application/medical-police/when.html</t>
+  </si>
+  <si>
+    <t>application/medical-police/when</t>
+  </si>
+  <si>
+    <t>application/medical-police/how</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/create-profile.html#wb-cont</t>
+  </si>
+  <si>
+    <t>express-entry/create-profile</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/rounds-invitations.html</t>
+  </si>
+  <si>
+    <t>express-entry/rounds-invitations</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/corporate/mandate/policies-operational-instructions-agreements/ministerial-instructions/express-entry-rounds.html</t>
+  </si>
+  <si>
+    <t>express-entry-rounds</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/rounds-invitations/category-based-selection.html</t>
+  </si>
+  <si>
+    <t>express-entry/rounds-invitations/category-based-selection</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/apply-permanent-residence.html</t>
+  </si>
+  <si>
+    <t>express-entry/apply-permanent-residence</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/information/fees/fees.asp#economic</t>
+  </si>
+  <si>
+    <t>fees</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/after-apply.html</t>
+  </si>
+  <si>
+    <t>express-entry/after-apply</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/application-approved.html</t>
+  </si>
+  <si>
+    <t>express-entry/application-approved</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/application-approved/in-canada.html</t>
+  </si>
+  <si>
+    <t>express-entry/application-approved/in-canada</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/application-approved/outside-canada.html</t>
+  </si>
+  <si>
+    <t>express-entry/application-approved/outside-canada</t>
+  </si>
+  <si>
+    <t>Express-Entry</t>
+  </si>
+  <si>
+    <t>Family Sponsorship</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship.html</t>
+  </si>
+  <si>
+    <t>family-sponsorship</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/spouse-partner-children.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/spouse-partner-children/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/spouse-partner-children/who-you-can-sponsor.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/spouse-partner-children/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/spouse-partner-children/track-update-application.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/spouse-partner-children/prepare-arrival.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/spouse-partner-children/spouse-common-law-partner-canada-open-work-permit.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadians/adopt-child-abroad/processes/choose-process/immigration.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadians/adopt-child-abroad/processes/choose-process/immigration/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadians/adopt-child-abroad/processes/choose-process/immigration/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadians/adopt-child-abroad/processes/choose-process/immigration/after-apply-next-steps.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadians/adopt-child-abroad/processes/choose-process/immigration/prepare-arrival.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/other-relatives.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/other-relatives/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/other-relatives/who-you-can-sponsor.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/other-relatives/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/other-relatives/after-apply-next-steps.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/other-relatives/prepare-arrival.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/sponsor-parents-grandparents.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/sponsor-parents-grandparents/undertaking.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/sponsor-parents-grandparents/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/sponsor-parents-grandparents/eligibility/income.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/sponsor-parents-grandparents/who-you-can-sponsor.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/sponsor-parents-grandparents/tell-us-you-want-sponsor-parent-grandparent.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/sponsor-parents-grandparents/selected.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/sponsor-parents-grandparents/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/sponsor-parents-grandparents/after-apply-next-steps.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/sponsor-parents-grandparents/prepare-arrival.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/fees-permits-victims.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/family-sponsorship/abuse.html</t>
+  </si>
+  <si>
+    <t>Refugees and asylum</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/asylum-claims/asylum-claims-2025.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/asylum-claims/asylum-claims-2024.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/asylum-claims/asylum-claims-2023.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/asylum-claims/asylum-claims-2022.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/application/check-status.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/protection.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/asylum/in-canada.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/asylum/in-canada/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/asylum/in-canada/start-online.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/asylum/in-canada/after-apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/asylum/in-canada/while-you-wait.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/asylum/in-canada/health-coverage.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/asylum/in-canada/after.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/asylum/border.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/asylum/border/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/asylum/border/what-to-expect.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/asylum/border/continue-online.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/asylum/border/while-you-wait.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/asylum/border/health-coverage.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/asylum/border/after-your-hearing.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/resettle-refugee.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/resettle-refugee/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/resettle-refugee/government-assisted-refugee-program.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/resettle-refugee/after-applying.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/resettle-refugee/after-applying/prepare-arrival.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/help-within-canada.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/protect-fraud.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/afghanistan.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/economic-mobility-pathways-pilot.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/economic-mobility-pathways-pilot/immigrate.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/economic-mobility-pathways-pilot/immigrate/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/economic-mobility-pathways-pilot/immigrate/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/economic-mobility-pathways-pilot/immigrate/after-apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/economic-mobility-pathways-pilot/immigrate/arrive.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/economic-mobility-pathways-pilot/hire.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/economic-mobility-pathways-pilot/hire/find-candidate-program.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/economic-mobility-pathways-pilot/hire/support-newcomers.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/sponsor-refugee.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/sponsor-refugee/private-sponsorship-program.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/sponsor-refugee/private-sponsorship-program/agreement-holders.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/sponsor-refugee/private-sponsorship-program/groups-five.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/sponsor-refugee/private-sponsorship-program/community-sponsors.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/sponsor-refugee/private-sponsorship-program/joint-assistance-program.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/sponsor-refugee/private-sponsorship-program/blended-visa-office-program.html</t>
+  </si>
+  <si>
+    <t>https://www.irb-cisr.gc.ca/en/refugee-appeals/pages/index.aspx</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/about-refugee-system.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/refugees/about-refugee-system/how-system-works.html</t>
+  </si>
+  <si>
+    <t>Atlantic Immigration Program</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/how-to-immigrate.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/how-to-immigrate/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/how-to-immigrate/job-offer.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/how-to-immigrate/documents.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/language-testing.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/education-assessment.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/proof-funds.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/settlement-service-provider-organizations.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/how-to-immigrate/permanent-residence.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/how-to-immigrate/temporary-work-permit.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/how-to-immigrate/after-apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/how-to-immigrate/application-approved.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/hire-immigrant.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/hire-immigrant/get-designated.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/hire-immigrant/employer-resources.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/hire-immigrant/employer-training.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/hire-immigrant/find-candidate.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/hire-immigrant/job-offer.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/hire-immigrant/endorsement.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/atlantic-immigration/hire-immigrant/temporary-work-permit.html</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/gnb/en/corporate/promo/immigration/immigrating-to-nb/atlantic-immigration-program.html</t>
+  </si>
+  <si>
+    <t>Home care workers (caregivers)</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/caregivers.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/caregivers/home-care-worker-immigration-pilots.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/caregivers/work-temporarily-caregiver.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/caregivers/child-care-home-support-worker.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/caregivers/child-care-home-support-worker/some-experience-about.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/caregivers/child-care-home-support-worker/complete-experience-about.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/caregivers/child-care-home-support-worker/complete-experience-eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/caregivers/child-care-home-support-worker/complete-experience-language-testing.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/caregivers/child-care-home-support-worker/complete-experience-education-assessed.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/caregivers/child-care-home-support-worker/complete-experience-apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/caregivers/child-care-home-support-worker/complete-experience-after-apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/caregiver-program/become-permanent-resident.html</t>
+  </si>
+  <si>
+    <t>Agri-Food Pilot</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/agri-food-pilot.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/agri-food-pilot/pr-eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/agri-food-pilot/pr-eligibility/language-testing.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/agri-food-pilot/pr-eligibility/proof-funds.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/agri-food-pilot/eligible-industries.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/agri-food-pilot/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/agri-food-pilot/after-you-apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/agri-food-pilot/work-permit.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/agri-food-pilot/application-approved.html</t>
+  </si>
+  <si>
+    <t>Start-up Visa Program</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/about.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/after-apply-next-steps.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/prepare-arrival.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/work-permits.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/work-permits/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/work-permits/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/work-permits/after-apply-next-steps.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/participate.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/participate/designation.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/participate/find-a-startup.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/participate/commitment-certificate.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/participate/applicants-process.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/participate/peer-review.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/start-visa/participate/suspension-loss-designation.html</t>
+  </si>
+  <si>
+    <t>Rural and Northern Immigration Pilot</t>
+  </si>
+  <si>
+    <t>Rural and Francophone Community Immigration pilots</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/hire.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/hire/designation.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/hire/resources.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/hire/employer-training.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/hire/candidate.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/hire/submit-recommendation.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/hire/work-permit.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/rural-immigration.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/rural-immigration/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/rural-immigration/eligibility/language-test.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/rural-immigration/eligibility/education-assessment.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/rural-immigration/eligibility/proof-funds.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/rural-immigration/job-offer.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/rural-immigration/permanent-residence.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/rural-immigration/after-apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/rural-immigration/settle.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/rural-immigration/work-permit.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/franco-immigration.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/franco-immigration/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/franco-immigration/eligibility/language-test.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/franco-immigration/eligibility/education-assessment.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/franco-immigration/eligibility/proof-funds.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/franco-immigration/job-offer.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/franco-immigration/permanent-residence.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/franco-immigration/after-apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/franco-immigration/settle.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/rural-franco-pilots/franco-immigration/work-permit.html</t>
+  </si>
+  <si>
+    <t>BC</t>
+  </si>
+  <si>
+    <t>Alberta</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/alberta-advantage-immigration-program</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-answers-for-common-questions</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/tourism-and-hospitality-stream</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/tourism-and-hospitality-stream-eligibility</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/tourism-and-hospitality-stream-after-you-are-nominated</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/how-to-apply-to-aaip-worker-streams</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-application-streams</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-alberta-opportunity-stream</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-alberta-opportunity-stream-eligibility</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-alberta-opportunity-stream-after-you-are-nominated</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-alberta-express-entry-stream</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-alberta-express-entry-stream-eligibility</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-alberta-express-entry-stream-after-you-are-nominated</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-updates</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-processing-information</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-expired-streams</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/job-offer-and-employer-requirements</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-resources</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/alberta-advantage-immigration-program-reporting-fraud</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/dedicated-health-care-pathway</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-rural-renewal-stream</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-rural-renewal-stream-eligibility</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-rural-renewal-stream-after-you-are-nominated</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-rural-renewal-stream-community-designation</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-rural-entrepreneur-stream</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-rural-entrepreneur-stream-eligibility</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-rural-entrepreneur-stream-how-to-apply</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-rural-entrepreneur-stream-after-you-are-nominated</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-rural-entrepreneur-stream-participating-communities</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-graduate-entrepreneur-stream</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-graduate-entrepreneur-stream-eligibility</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-graduate-entrepreneur-stream-how-to-apply</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-graduate-entrepreneur-stream-after-you-are-nominated</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-farm-stream</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-farm-stream-eligibility</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-farm-stream-how-to-apply</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-farm-stream-after-you-are-nominated</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-foreign-graduate-entrepreneur-stream</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-foreign-graduate-entrepreneur-stream-eligibility</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-foreign-graduate-entrepreneur-stream-how-to-apply</t>
+  </si>
+  <si>
+    <t>https://www.alberta.ca/aaip-foreign-graduate-entrepreneur-stream-after-you-are-nominated</t>
+  </si>
+  <si>
+    <t>Saskatchewan</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program#:~:text=URL%3A%20https%3A%2F%2Fwww.saskatchewan.ca%2Fresidents%2Fmoving</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/language-requirements-for-sinp</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/check-application-processing-times-for-sinp</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/sinp-important-words-and-definitions</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/immigration-faqs</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/farm-owner-and-operator</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/entrepreneur/procedures-and-guidelines</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/farm-owner-and-operator/applicants-farm-owners-and-operators</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/entrepreneur</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/entrepreneur/entrepreneur-eoi-system</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/entrepreneur/international-graduate-entrepreneur-category</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/entrepreneur/applicants-entrepreneurs</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-with-saskatchewan-experience</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-with-saskatchewan-experience/procedures-and-guidelines</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-with-saskatchewan-experience/applicants-with-existing-work-permit</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-international-skilled-workers/agriculture-talent-pathway</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-with-saskatchewan-experience/students</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-international-skilled-workers/health-talent-pathway</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-international-skilled-workers</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-international-skilled-workers/connecting-family-members-to-saskatchewans-labour-market</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-international-skilled-workers/international-healthcare-worker-eoi-pool</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-international-skilled-workers/occupation-restrictions-and-requirements</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-international-skilled-workers/international-skilled-worker-eoi-system</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-international-skilled-workers/procedures-and-guidelines</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-international-skilled-workers/assess-your-eligibility</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-international-skilled-workers/international-skilled-worker-with-employment-offer</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-international-skilled-workers/international-skilled-worker-occupations-in-demand</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-international-skilled-workers/international-skilled-worker-saskatchewan-express-entry</t>
+  </si>
+  <si>
+    <t>https://www.saskatchewan.ca/residents/moving-to-saskatchewan/live-in-saskatchewan/by-immigrating/saskatchewan-immigrant-nominee-program/browse-sinp-programs/applicants-international-skilled-workers/sinp-tech-talent-pathway</t>
+  </si>
+  <si>
+    <t>Manitoba </t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/skilled-worker/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/skilled-worker/swm/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/skilled-worker/swm/eligibility/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/apply/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/apply/eoi/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/apply/laa/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/apply/assessment/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/apply/nomination/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/apply/pr/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/skilled-worker/swo/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/skilled-worker/swo/eligibility/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/skilled-worker/swo/eligibility/#support</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/skilled-worker/swo/eligibility/#experience</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/skilled-worker/swo/eligibility/#invitation</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/ies/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/ies/cep/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/ies/cep/eligibility/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/work/in-demand-occupations/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/policies/settlement-funds/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/ies/graduate-internship/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/ies/graduate-internship/eligibility/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/ies/isep/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/ies/isep/eligibility/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/ies/isep/apply/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/bis/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/bis/entrepreneur/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/bis/entrepreneur/eligibility/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/bis/entrepreneur/apply/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/bis/fip/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/bis/fip/eligibility/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/bis/fip/apply/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/federal/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/faq/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/faq/pre-application/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/faq/eoi/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/faq/skilled-workers/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/faq/bis/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/faq/international-students/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/faq/assessment-and-procedural-fairness/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/policies/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/data/monthly-data-2023/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/immigrate/skilled-worker/webform/</t>
+  </si>
+  <si>
+    <t>https://immigratemanitoba.com/notices/eoi-draw/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Québec </t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/skilled-worker-selection-program</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/skilled-worker-selection-program/about</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/skilled-worker-selection-program/requirements</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/skilled-worker-selection-program/expression-of-interest</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/skilled-worker-selection-program/invitation</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/skilled-worker-selection-program/applying</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/skilled-worker-selection-program/examination</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/skilled-worker-selection-program/after-selection-certificate</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/regular-skilled-worker-program</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/regular-skilled-worker-program/invitation</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/regular-skilled-worker-program/applying</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/regular-skilled-worker-program/processing</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/regular-skilled-worker-program/after-selection-certificate</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/quebec-experience-program</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/quebec-experience-program/about</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/quebec-experience-program/selection-conditions</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/quebec-experience-program/applying</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/quebec-experience-program/after-selection-certificate</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/open-work-permit</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/food-processing</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/food-processing/about</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/food-processing/selection-conditions</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/food-processing/application-selection</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/food-processing/after-selection-certificate</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/orderlies</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/orderlies/about</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/orderlies/selection-conditions</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/orderlies/application-selection</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/orderlies/after-selection-certificate</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/artificial-intelligence</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/artificial-intelligence/artificial-intelligence</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/artificial-intelligence/selection-conditions</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/artificial-intelligence/application-selection</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/skilled-workers/artificial-intelligence/after-selection-certificate</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/self-employed-workers</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/self-employed-workers/conditions</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/self-employed-workers/applying</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/self-employed-workers/modify-application-after-submission</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/self-employed-workers/review-application</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/self-employed-workers/after-selection-certificate</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/investors</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/investors/conditions</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/investors/applying</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/investors/modify-application-after-submission</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/investors/review-application</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/investors/after-work-permit</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/investors/after-selection-certificate</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/investors/participate-financial-intermediary</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/start-operate-innovative-business/conditions</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/start-operate-innovative-business/applying</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/start-operate-innovative-business/modify-application-after-submission</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/start-operate-innovative-business/review-application</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/start-operate-innovative-business/after-selection-certificate</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/start-acquire-business</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/start-acquire-business/conditions</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/start-acquire-business/applying</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/start-acquire-business/modify-application-after-submissionhttps://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/start-acquire-business/review-application</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/start-acquire-business/after-selection-certificate</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/takeover/conditions</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/takeover/applying</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/takeover/modify-application-after-submission</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/takeover/review-application</t>
+  </si>
+  <si>
+    <t>https://www.quebec.ca/en/immigration/permanent/immigrate-business/entrepreneurs/takeover/after-obtaining-csq</t>
+  </si>
+  <si>
+    <t>Nova Scotia</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/nova-scotia-nominee-program</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/sites/default/files/2024-05/AppGuide-NSNP-SW-English.pdf</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/sites/default/files/2024-05/Changes-AppGuide-NSNP-SW-English.pdf</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/sites/default/files/2024-05/NSNP-200-Employer-Information-English.pdf</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/nova-scotia-nominee-program#tab-1</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/nova-scotia-nominee-program#tab-2</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/nova-scotia-nominee-program#tab-3</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/nova-scotia-nominee-program#tab-4</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/nova-scotia-nominee-program#tab-5</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/nova-scotia-nominee-program#tab-6</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/nova-scotia-nominee-program#tab-7</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/nova-scotia-nominee-program#tab-8</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/nova-scotia-nominee-program#tab-9</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/nova-scotia-nominee-program#tab-10</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/atlantic-immigration-program</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/sites/default/files/2024-07/AIP-Designation-Guidelines-EN.pdf</t>
+  </si>
+  <si>
+    <t>https://liveinnovascotia.com/sites/default/files/2024-06/Changes-AppGuide-AIP-English.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gnb.ca/en.html</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/gnb/en/corporate/promo/immigration.html</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/gnb/en/corporate/promo/immigration/immigrating-to-nb/nb-immigration-program-streams.html</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/gnb/en/corporate/promo/immigration/immigrating-to-nb/nb-express-entry-stream.html</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/gnb/en/corporate/promo/immigration/immigrating-to-nb/nb-strategic-initiative-stream.html</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/gnb/en/corporate/promo/immigration/immigrating-to-nb/private-career-college-graduate-pilot-program.html</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/gnb/en/corporate/promo/immigration/immigrating-to-nb/nb-skilled-worker-stream.html</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/gnb/en/corporate/promo/immigration/immigrating-to-nb/invitations-to-apply.html</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/gnb/en/corporate/promo/immigration/immigrating-to-nb/nb-business-immigration-stream.html</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/dam/gnb/Corporate/Promo/Immigration/NB-business-immigration-stream-guide.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/dam/gnb/Corporate/Promo/Immigration/designated-employers-employeurs-designes.pdf</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/gnb/en/corporate/promo/immigration/immigrating-to-nb/nb-critical-workers-pilot.html</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/gnb/en/corporate/promo/immigration/immigrating-to-nb/first-steps.html</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/gnb/en/corporate/promo/immigration/immigrating-to-nb/before-you-arrive.html</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/gnb/en/corporate/promo/immigration/immigrating-to-nb/after-you-arrive.html</t>
+  </si>
+  <si>
+    <t>https://www2.gnb.ca/content/gnb/en/corporate/promo/immigration/immigrating-to-nb/using-a-representative.html</t>
+  </si>
+  <si>
+    <t>New Brunswick</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/provincial-nominee-program</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/topic/office-immigration</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/topic/atlantic-immigration-program</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/atlantic-immigration-program-designated-employers</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/service/atlantic-immigration-program-employer-designation-application</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/service/atlantic-immigration-program-endorsement-application</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/topic/expression-of-interest</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/anticipated-invitation-to-apply-schedule</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/expression-of-interest-draws</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/service/submit-your-expression-of-interest-profile</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/workforce-program-selector-tool</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/topic/immigrate-to-pei-as-a-worker</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/critical-workers</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/intermediate-experience-stream</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/international-graduates</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/occupations-in-demand</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/pei-express-entry</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/skilled-workers-in-pei</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/skilled-workers-outside-canada</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/topic/immigrate-pei-entrepreneur</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/work-permit-stream</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/topic/immigration-stories</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/canton-cafe-immigration-at-work</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-immigration/express-entry-immigration-work</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-immigration/flourish-development-group-immigration-work</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/instant-imprints-immigration-at-work</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-immigration/millers-esso-immigration-work</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-immigration/pauls-flowers-immigration-work</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/riverdale-orchard-and-cidery-immigration-at-work</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/topic/international-recruitment-0</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/international-recruitment-events</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/topic/pei-business-owners</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/finding-an-investor-business-partner</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/selling-your-business-to-a-newcomer</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/supporting-a-worker-for-immigration</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/topic/settlement</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-immigration/newly-landed-entrepreneurs</t>
+  </si>
+  <si>
+    <t>https://www.princeedwardisland.ca/en/information/office-of-immigration/reporting-misuse-of-the-pei-provincial-nominee-program</t>
+  </si>
+  <si>
+    <t>Prince Edward Island</t>
+  </si>
+  <si>
+    <t>Newfoundland and Labrador</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/immigrating-to-newfoundland-and-labrador/</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/immigrating-to-newfoundland-and-labrador/provincial-nominee-program/overview/</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/immigrating-to-newfoundland-and-labrador/provincial-nominee-program/applicants/express-entry-skilled-worker/</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/files/Updated-EESW-Step-by-Step-Process.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/files/14.-Assessing-Jobs-or-Job-Offers-under-the-NLPNP-with-a-shorter-duration-than-specified-in-the-NLPNP-Category.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/immigrating-to-newfoundland-and-labrador/provincial-nominee-program/employers/employer-criteria/</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/ecc/labour/nonunion/</t>
+  </si>
+  <si>
+    <t>https://www.jobbank.gc.ca/trend-analysis</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/files/AnnexA_PNP.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/files/NLPNP-Document-Checklist.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/immigrating-to-newfoundland-and-labrador/provincial-nominee-program/applicants/skilled-worker/</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/files/Updated-SW-Step-by-Step-Process-.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/immigrating-to-newfoundland-and-labrador/provincial-nominee-program/applicants/international-graduate/</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/files/IG-Step-by-Step-Process-1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/immigrating-to-newfoundland-and-labrador/provincial-nominee-program/entrepreneurs/international-entrepreneur/eligibility-criteria/</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/immigrating-to-newfoundland-and-labrador/provincial-nominee-program/entrepreneurs/international-graduate-entrepreneur/eligibility-criteria/</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/immigrating-to-newfoundland-and-labrador/provincial-nominee-program/employers/overview/</t>
+  </si>
+  <si>
+    <t>http://www.gov.nl.ca/immigration/files/Immigration_101.pdf</t>
+  </si>
+  <si>
+    <t>http://www.gov.nl.ca/immigration/files/ExpressEntryForEmployers-1.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/immigrating-to-newfoundland-and-labrador/provincial-nominee-program/employers/employer-roadmap/</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/immigrating-to-newfoundland-and-labrador/atlantic-immigration-program/employers/</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/files/EN-Employer-Designation-Guidelines-fall-2023-review.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/files/EN-Endorsement-Application-Guidelines-fall-2023-review.pdf</t>
+  </si>
+  <si>
+    <t>https://www.gov.nl.ca/immigration/immigrating-to-newfoundland-and-labrador/atlantic-immigration-program/workers/</t>
+  </si>
+  <si>
+    <t>Yukon</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/en</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/en/doing-business/yukon-nominee-program-foreign-workers#:~:text=Employers%20can%20find%20information%20about,to%20hire%20a%20foreign%20worker</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/en/doing-business/yukon-nominee-program/find-out-if-you-are-eligible-hire-foreign-worker</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/en/news/statement-from-premier-pillai-on-notification-of-reduction-for-the-yukon-nominee-program-in-2025</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/en/yukon-nominee-program-application-handbook</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/en/yukon-nominee-program-policy</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/en/immigrate-yukon</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/en/immigration/yukon-business-nominee-program/apply-run-your-own-business-yukon-foreign-entrepreneurs</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/en/find-eligibility-requirements-apply-run-your-business-yukon-foreign-entrepreneurs</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/en/doing-business/yukon-nominee-program/apply-skilled-worker-and-critical-impact-worker-streams-hire</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/immigrate-canada/express-entry/eligibility/find-national-occupation-code.html</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/en/yukon-nominee-program-application-form</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/en/doing-business/yukon-nominee-program/apply-express-entry-stream-hire-foreign-worker</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/en/doing-business/yukon-nominee-program/apply-hire-foreign-worker-through-yukon-community-program</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/en/yukon-business-nominee-program-assessment-point-grid</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/sites/default/files/ecdev/ecdev-forms/ecdev-yukon-busines-nominee-program-assessment-grid_0.pdf</t>
+  </si>
+  <si>
+    <t>https://yukon.ca/en/immigration/yukon-business-nominee-program</t>
+  </si>
+  <si>
+    <t>Northwest Territories</t>
+  </si>
+  <si>
+    <t>https://www.gov.nt.ca/</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/immigrate-here</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/business-stream</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/files/northwest-territories-nominee-program-business-stream-guidelines-september-2023</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/ntnp3-business-stream-nominee-application-checklist</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/ntnp4-personal-statement-financial-affairs</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/authorize-or-cancel-representative-nominee-applicant</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/employment-standards-verification-form</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/employer-driven-stream</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/entry-levelsemi-skilled-occupations</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/program-guidelines-entry-level-semi-skilled-occupations</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/nominee-applicant-form</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/employer-application</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/entry-level-semi-skilled-occupations-application-checklist</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/skilled-worker</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/nwt-express-entry</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/francophone-stream</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/economic-mobility-pathways-pilot</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/temporary-foreign-workers%E2%80%99-rights-and-responsibilities</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/nominee-support</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/program-guidelines-skilled-worker-nwt-express-entry</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/program-guidelines-francophone-stream-0</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/northwest-territories-nominee-program-francophone-stream-faq</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/ntnp-business-stream-application-guidelines</t>
+  </si>
+  <si>
+    <t>https://www.immigratenwt.ca/skilled-worker-nwt-express-entry-application-checklist</t>
+  </si>
+  <si>
+    <t>Ontario</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/government-ontario</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/ontario-immigrant-nominee-program-oinp</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/ontario-immigrant-nominee-program-streams</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/ontario-immigrant-nominee-program-expression-interest-system-streams</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/oinp-employer-job-offer-foreign-worker-stream</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/document/oinp-document-checklists/employer-job-offer-foreign-worker-stream-applicant-checklist</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/oinp-employer-job-offer-international-student-stream</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/document/oinp-document-checklists/employer-job-offer-international-student-stream-applicant-checklist</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/laws/regulation/170422#BK5</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/oinp-employer-job-offer-streams-employer-guide</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/ontarios-express-entry-french-speaking-skilled-worker-stream</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/oinp-employer-job-offer-demand-skills-stream</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/document/oinp-document-checklists/employer-job-offer-demand-skills-stream-applicant-checklist</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/oinp-masters-graduate-stream</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/document/oinp-document-checklists/masters-graduate-stream-applicant-checklist</t>
+  </si>
+  <si>
+    <t>https://forms.mgcs.gov.on.ca/dataset/on00596</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/application/application-forms-guides/temporary-resident-visa-application-photograph-specifications.html</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/oinp-phd-graduate-stream</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/document/oinp-document-checklists/phd-graduate-stream-applicant-checklist</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/ontarios-express-entry-system-streams</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/document/oinp-document-checklists/ontarios-express-entry-french-speaking-skilled-worker-stream-applicant-checklist</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/ontarios-express-entry-human-capital-priorities-stream</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/document/oinp-document-checklists/ontarios-express-entry-human-capital-priorities-stream-applicant</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/ontarios-express-entry-skilled-trades-stream</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/document/oinp-document-checklists/ontarios-express-entry-skilled-trades-stream-applicant-checklist</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/ontario-immigrant-nominee-program-oinp-invitations-apply</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/oinp-express-entry-notifications-interest</t>
+  </si>
+  <si>
+    <t>https://www.ontario.ca/page/oinp-tech-draws</t>
+  </si>
+  <si>
+    <t>Study-Permit</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/study-permit.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/study-permit/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/work/after-graduation.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/study-permit/eligibility/study-without-permit.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/work/work-on-campus.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/work/work-off-campus.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/work.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/work/intern.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/settle-canada/federal-internship.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/settle-canada/federal-internship/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/settle-canada/federal-internship/register.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/settle-canada/federal-internship/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/settle-canada/federal-internship/after-next-steps.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/work/help-your-spouse-common-law-partner-work-canada.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/work/after-graduation/about.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/study-permit/prepare/designated-learning-institutions-list.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/work/after-graduation/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/need-permit.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/work/after-graduation/eligibility/language-results.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/work/after-graduation/eligibility/field-of-study.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/work/after-graduation/get-documents.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/work/after-graduation/eligibility.html#education-level</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/work/after-graduation/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/application/application-forms-guides/guide-5487-applying-work-permit-outside-canada.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/application/application-forms-guides/guide-5580-applying-work-permit-student-guide.html</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/visit/biometrics.asp</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/work/after-graduation/after-you-apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/work/after-graduation/path-to-pr.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/study-permit/get-documents.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/study-permit/get-documents/proof-of-acceptance.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/study-permit/get-documents/provincial-attestation-letter.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/study-permit/get-documents/proof-of-identity.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/study-permit/get-documents/financial-support.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/study-permit/get-documents/other-documents.html</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=1310&amp;top=25</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/study-permit/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/study-permit/get-documents.html#attestation</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/study-canada/extend-study-permit/how-to-apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/application/check-processing-times.html</t>
+  </si>
+  <si>
+    <t>Work Permits</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/work-permit.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/global-skills-strategy.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/need-work-permit-work.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/hire-temporary-foreign.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/eligibility.html#centred-popup1</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/extend/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/after-apply-next-steps.html</t>
+  </si>
+  <si>
+    <t>https://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=043&amp;top=4</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/prepare-arrival.html</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/visit/visas.asp</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=845&amp;top=25</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/start-working.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/extend/after-apply.html#online</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/corporate/publications-manuals/know-your-rights-worker-international-mobility-program.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/employment-social-development/services/foreign-workers/protected-rights.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/open-work-permit-spouses-dependent-children.html</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=176</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/open-work-permit-spouses-dependent-children/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/open-work-permit-spouses-dependent-children/eligibility.html#high-skilled-teer-2</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/open-work-permit-spouses-dependent-children/eligibility.html#high-skilled-teer-3</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/open-work-permit-spouses-dependent-children/when.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/open-work-permit-spouses-dependent-children/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/open-work-permit-spouses-dependent-children/process.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/innovation-stream.html</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=163&amp;top=17</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=1653&amp;top=17</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=185&amp;top=17</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=170&amp;top=17</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=162&amp;top=17</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=679&amp;top=17</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=169&amp;top=17</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/services/immigration-citizenship/helpcentre/glossary.html#work_permit</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/extend.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/extend/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/extend/after-apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/extend/expired-permit.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/extend/change-jobs-employers.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/extend/travel-outside-canada.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/visit-canada/apply-new-temporary-resident-visa-within-canada.html</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=208&amp;top=22</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/restore.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/hire-temporary-foreign/extend-permit.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/agricultural-workers-work-temporarily.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/work-canada/permit/temporary/vulnerable-workers.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/content/dam/ircc/documents/pdf/open-work-permit/3668-open-work-permit-for-factsheet-en-no-links.pdf</t>
+  </si>
+  <si>
+    <t>Visitor visa</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/visit-canada/visitor-visa.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/visit-canada/about-visitor-visa.html</t>
+  </si>
+  <si>
+    <t>http://ircc.canada.ca/english/helpcentre/answer.asp?qnum=1452&amp;top=16</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/visit-canada/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/passport-travel-document.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/application/medical-police/medical-exams.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/visit-canada/letter-invitation.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/visit-canada/apply-visitor-visa.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/visit-canada/after-apply-next-steps.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/visit-canada/prepare-arrival.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/visit-canada/minor-children-travelling-canada.html</t>
+  </si>
+  <si>
+    <t>http://www.cic.gc.ca/english/helpcentre/answer.asp?qnum=1016&amp;top=16</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=417&amp;top=16</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=421&amp;top=16</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=416&amp;top=16</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=1020&amp;top=16</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=1056&amp;top=16</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=1044&amp;top=16</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=420&amp;top=16</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=1022&amp;top=16</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=1452&amp;top=16</t>
+  </si>
+  <si>
+    <t>https://ircc.canada.ca/english/helpcentre/answer.asp?qnum=1453&amp;top=16</t>
+  </si>
+  <si>
+    <t>citizenship</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/become-canadian-citizen.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/become-canadian-citizen/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/become-canadian-citizen/check-eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/resume-canadian-citizenship/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/become-canadian-citizen/eligibility/already-citizen.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/proof-citizenship/about.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/permanent-residents/status.html</t>
+  </si>
+  <si>
+    <t>http://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=355&amp;top=5</t>
+  </si>
+  <si>
+    <t>http://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=1077&amp;top=5</t>
+  </si>
+  <si>
+    <t>http://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=357&amp;top=5</t>
+  </si>
+  <si>
+    <t>http://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=358&amp;top=5</t>
+  </si>
+  <si>
+    <t>http://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=359&amp;top=5</t>
+  </si>
+  <si>
+    <t>https://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=1520&amp;top=5</t>
+  </si>
+  <si>
+    <t>https://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=1407&amp;top=5</t>
+  </si>
+  <si>
+    <t>https://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=1406&amp;top=5</t>
+  </si>
+  <si>
+    <t>https://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=1405&amp;top=5</t>
+  </si>
+  <si>
+    <t>https://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=1404&amp;top=5</t>
+  </si>
+  <si>
+    <t>https://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=1169&amp;top=5</t>
+  </si>
+  <si>
+    <t>https://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=911&amp;top=5</t>
+  </si>
+  <si>
+    <t>https://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=910&amp;top=5</t>
+  </si>
+  <si>
+    <t>https://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=905&amp;top=5</t>
+  </si>
+  <si>
+    <t>https://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=359&amp;top=5</t>
+  </si>
+  <si>
+    <t>https://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=358&amp;top=5</t>
+  </si>
+  <si>
+    <t>https://www.ircc.canada.ca/english/helpcentre/answer.asp?qnum=357&amp;top=5</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/application/application-forms-guides/application-canadian-citizenship-adults.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/application/application-forms-guides/application-canadian-citizenship-minors.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/application/application-forms-guides/citizenship-minors-subsection-5-11.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/application/application-forms-guides/application-canadian-citizenship-adopted-person.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/application/application-forms-guides/applications-grant-citizenship-stateless-persons-born-canadian-parent-subsection-5-5.htm</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/application/application-forms-guides/application-canadian-citizenship-canadian-armed-forces.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/become-canadian-citizen/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.ircc.canada.ca/english/helpcentre/questions-answers-by-topic.asp?top=5</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/become-canadian-citizen/apply/urgently.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/become-canadian-citizen/after-apply-next-steps.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/become-canadian-citizen/citizenship-test.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/become-canadian-citizen/citizenship-ceremony.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/become-canadian-citizen/citizenship-ceremony/who.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/become-canadian-citizen/citizenship-ceremony/format.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/become-canadian-citizen/citizenship-ceremony/bring.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/become-canadian-citizen/citizenship-ceremony/expect.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/become-canadian-citizen/citizenship-ceremony/after.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/proof-citizenship.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/proof-citizenship/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/proof-citizenship/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/proof-citizenship/after-apply-next-steps.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/renounce-canadian-citizenship.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/renounce-canadian-citizenship/eligibility.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/renounce-canadian-citizenship/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/renounce-canadian-citizenship/after-renounce-next-steps.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/resume-canadian-citizenship.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/resume-canadian-citizenship/apply.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/resume-canadian-citizenship/after-resuming-next-steps.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/act-changes.html</t>
+  </si>
+  <si>
+    <t>https://www.canada.ca/en/immigration-refugees-citizenship/services/canadian-citizenship/take-part-citizenship.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,8 +2357,30 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="13.75"/>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="24"/>
       <color rgb="FF333333"/>
+      <name val="Source Sans Pro"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="30"/>
+      <color rgb="FF2C3967"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -103,12 +2414,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -391,52 +2707,4245 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B936"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A857" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B874" sqref="B874"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50.33203125" customWidth="1"/>
-    <col min="2" max="2" width="105.88671875" customWidth="1"/>
+    <col min="2" max="2" width="193.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="91.8" customHeight="1" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A36" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A72" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B113" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B115" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B117" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B119" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B120" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B121" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B128" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B145" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B146" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B148" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B155" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B156" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B157" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B158" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B160" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B161" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B162" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B163" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B164" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B165" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B166" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A172" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B174" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B175" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B176" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B177" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B178" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B179" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B180" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B181" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B182" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A185" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B187" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B188" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B189" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B190" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B191" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B192" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B193" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B194" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B195" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B196" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B197" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B198" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B199" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B200" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B201" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B202" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B203" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="54.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A207" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="212" spans="1:2" ht="81.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A212" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B215" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B216" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B217" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B218" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B219" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B220" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B221" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B222" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B223" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B224" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A259" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="264" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A264" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B267" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B268" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B269" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B270" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B271" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B272" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B274" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B275" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B276" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B277" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B278" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B279" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B281" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B282" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B285" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B286" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B287" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B288" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B289" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B290" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B291" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B292" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B293" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B294" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B295" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B296" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B297" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B298" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B299" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B300" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B301" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B302" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B303" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B304" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B305" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B306" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B307" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A311" s="4" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B313" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B314" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B315" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B316" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B317" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B318" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B319" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B320" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B321" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B322" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B323" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B324" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B325" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B326" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B327" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B328" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B329" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B330" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B331" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B332" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B333" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B334" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B335" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B336" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B337" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B338" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B339" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B340" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B341" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B342" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B343" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B344" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B345" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B346" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B347" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B348" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B349" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B350" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B351" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B352" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B353" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B354" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A358" s="4" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B359" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B360" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B361" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B362" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B363" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B364" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B365" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B366" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B367" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B368" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B369" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B370" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B371" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B372" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B373" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B374" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B375" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B376" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B377" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B378" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B379" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B380" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B381" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B382" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B383" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B384" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B385" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B386" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B387" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B388" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B389" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B390" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B391" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B392" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B393" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B394" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B395" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B396" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B397" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B398" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B399" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B400" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B401" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B402" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B403" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B404" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B405" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A410" s="4" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B411" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B412" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B413" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B414" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B415" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B416" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B417" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B418" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B419" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B420" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B421" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B422" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B423" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B424" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B425" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B426" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B427" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B428" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B429" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B430" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B431" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B432" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B433" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B434" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B435" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B436" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B437" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B438" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B439" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B440" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B441" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B442" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B443" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B444" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B445" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B446" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B447" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B448" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B449" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B450" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B451" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B452" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B453" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="454" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B454" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="455" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B455" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="456" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B456" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="457" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B457" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="458" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B458" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="459" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B459" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="460" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B460" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="461" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B461" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="462" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B462" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="463" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B463" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="464" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B464" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="465" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B465" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="466" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B466" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="467" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B467" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="468" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B468" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="469" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B469" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="470" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B470" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="471" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B471" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="472" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B472" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="473" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B473" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="474" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B474" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="475" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B475" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="476" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B476" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="477" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B477" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="478" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B478" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="479" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B479" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="480" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B480" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B481" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B482" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B483" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B484" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B485" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B486" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B487" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A491" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B492" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B493" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B494" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B495" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B496" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B497" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B498" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B499" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B500" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B501" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B502" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B503" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B504" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B505" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B506" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B507" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B508" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A512" s="5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="515" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B515" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="516" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B516" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="517" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B517" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="518" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B518" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="519" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B519" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="520" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B520" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="521" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B521" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="522" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B522" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="523" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B523" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="524" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B524" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="525" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B525" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="526" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B526" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="527" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B527" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="528" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B528" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B529" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B530" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B531" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B532" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B533" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B534" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B535" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" ht="74.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A540" s="5" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B542" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B543" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B544" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="545" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B545" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="546" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B546" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="547" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B547" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="548" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B548" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="549" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B549" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="550" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B550" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="551" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B551" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="552" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B552" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="553" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B553" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="554" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B554" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="555" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B555" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="556" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B556" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="557" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B557" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="558" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B558" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="559" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B559" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="560" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B560" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="561" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B561" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="562" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B562" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="563" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B563" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="564" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B564" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="565" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B565" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="566" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B566" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="567" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B567" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="568" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B568" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="569" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B569" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="570" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B570" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="571" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B571" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="572" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B572" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="573" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B573" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="574" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B574" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="575" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B575" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="576" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B576" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="577" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B577" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="578" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B578" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="579" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B579" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="580" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B580" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="581" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B581" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="582" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B582" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="587" spans="1:2" ht="74.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A587" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="589" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B589" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="590" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B590" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="591" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B591" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="592" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B592" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="593" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B593" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="594" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B594" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="595" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B595" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="596" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B596" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="597" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B597" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="598" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B598" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="599" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B599" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="600" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B600" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="601" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B601" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="602" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B602" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="603" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B603" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="604" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B604" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="605" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B605" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="606" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B606" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="607" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B607" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="608" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B608" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="609" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B609" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="610" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B610" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="611" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B611" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="612" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B612" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="613" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B613" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="614" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B614" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="615" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B615" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="620" spans="1:2" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A620" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="623" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B623" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="624" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B624" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="625" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B625" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="626" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B626" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="627" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B627" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="628" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B628" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="629" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B629" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="630" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B630" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="631" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B631" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="632" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B632" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="633" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B633" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="634" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B634" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="635" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B635" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="636" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B636" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="637" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B637" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="638" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B638" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="639" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B639" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="640" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B640" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B641" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="647" spans="1:2" ht="74.400000000000006" x14ac:dyDescent="0.3">
+      <c r="A647" s="5" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B650" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B651" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B652" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B653" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B654" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B655" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B656" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="657" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B657" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="658" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B658" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="659" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B659" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="660" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B660" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="661" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B661" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="662" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B662" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="663" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B663" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="664" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B664" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="665" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B665" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="666" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B666" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="667" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B667" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="668" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B668" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="669" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B669" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="670" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B670" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="671" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B671" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="672" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B672" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B673" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B674" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B675" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B676" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B677" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B678" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B679" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B680" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="684" spans="1:2" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A684" s="5" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B688" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="689" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B689" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="690" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B690" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="691" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B691" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="692" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B692" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="693" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B693" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="694" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B694" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="695" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B695" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="696" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B696" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="697" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B697" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="698" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B698" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="699" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B699" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="700" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B700" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="701" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B701" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="702" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B702" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="703" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B703" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="704" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B704" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="705" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B705" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="706" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B706" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="707" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B707" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="708" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B708" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="709" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B709" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="710" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B710" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="711" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B711" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="712" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B712" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="713" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B713" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="714" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B714" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="715" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B715" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="716" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B716" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="717" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B717" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="718" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B718" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="723" spans="1:2" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A723" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B726" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B727" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B728" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B729" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B730" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B731" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B732" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B733" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B734" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B735" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B736" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="737" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B737" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="738" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B738" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="739" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B739" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="740" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B740" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="741" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B741" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="742" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B742" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="743" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B743" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="744" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B744" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="745" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B745" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="746" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B746" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="747" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B747" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="748" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B748" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="749" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B749" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="750" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B750" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="751" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B751" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="752" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B752" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="753" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B753" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="754" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B754" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="755" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B755" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="756" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B756" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="757" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B757" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="758" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B758" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="759" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B759" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="760" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B760" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="761" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B761" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="762" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B762" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="763" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B763" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="764" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B764" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="765" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B765" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="766" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B766" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="767" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B767" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="768" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B768" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B769" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B770" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B771" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B772" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B773" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="779" spans="1:2" ht="37.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A779" s="5" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B781" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B782" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B783" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B784" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="785" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B785" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="786" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B786" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="787" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B787" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="788" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B788" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="789" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B789" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="790" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B790" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="791" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B791" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="792" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B792" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="793" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B793" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="794" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B794" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="795" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B795" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="796" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B796" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="797" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B797" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="798" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B798" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="799" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B799" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="800" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B800" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="801" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B801" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="802" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B802" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="803" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B803" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="804" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B804" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="805" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B805" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="806" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B806" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="807" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B807" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="808" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B808" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="809" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B809" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="810" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B810" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="811" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B811" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="812" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B812" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="813" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B813" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="814" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B814" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="815" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B815" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="816" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B816" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="817" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B817" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="818" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B818" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="819" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B819" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="820" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B820" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="821" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B821" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="822" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B822" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="823" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B823" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="824" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B824" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="825" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B825" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="826" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B826" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="827" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B827" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="828" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B828" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="829" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B829" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="830" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B830" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="831" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B831" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="832" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B832" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B834" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B835" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B836" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B837" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="841" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A841" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="842" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B843" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B844" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B845" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B846" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B847" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B848" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="849" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B849" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="850" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B850" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="851" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B851" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="852" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B852" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="853" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B853" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="854" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B854" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="855" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B855" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="856" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B856" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="857" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B857" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="858" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B858" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="859" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B859" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="860" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B860" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="861" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B861" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="862" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B862" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="863" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B863" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="864" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B864" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="865" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B865" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="866" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B866" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="874" spans="1:2" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A874" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="875" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="877" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B877" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="878" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B878" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="879" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B879" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="880" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B880" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="881" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B881" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="882" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B882" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="883" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B883" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="884" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B884" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="885" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B885" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="886" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B886" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="887" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B887" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="888" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B888" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="889" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B889" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="890" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B890" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="891" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B891" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="892" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B892" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="893" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B893" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="894" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B894" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="895" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B895" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="896" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B896" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="897" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B897" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="898" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B898" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="899" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B899" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="900" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B900" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="901" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B901" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="902" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B902" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="903" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B903" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="904" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B904" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="905" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B905" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="906" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B906" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="907" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B907" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="908" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B908" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="909" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B909" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="910" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B910" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="911" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B911" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="912" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B912" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="913" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B913" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="914" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B914" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="915" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B915" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="916" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B916" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="917" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B917" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="918" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B918" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="919" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B919" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="920" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B920" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="921" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B921" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="922" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B922" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="923" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B923" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="924" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B924" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="925" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B925" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="926" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B926" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="927" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B927" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="928" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B928" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="929" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B929" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="930" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B930" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="931" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B931" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="932" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B932" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="933" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B933" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="934" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B934" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="935" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B935" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="936" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B936" t="s">
+        <v>769</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{CB2D5345-E679-4E76-8ADD-CF959D781D92}"/>
+    <hyperlink ref="B5" r:id="rId2" xr:uid="{FDED13CA-A6CF-4E42-A4C9-B95F9CE781A0}"/>
+    <hyperlink ref="B6" r:id="rId3" xr:uid="{22C2AE60-B936-45CB-A3E1-BDE96B85D9A1}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{00B20445-D9D0-400E-BF60-3861743DA1E2}"/>
+    <hyperlink ref="B11" r:id="rId5" xr:uid="{E006219E-3792-4277-AA86-168B9F33CCEF}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{3112FCF9-1BB3-46CF-85AD-C86D3A103F2C}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{73FDC1CC-DE1B-4A64-B6C2-A40A51F868F4}"/>
+    <hyperlink ref="B15" r:id="rId8" xr:uid="{3E324621-2F13-48D8-95AA-6CCDFC52D2F4}"/>
+    <hyperlink ref="B16" r:id="rId9" location="wb-cont" xr:uid="{2F18A65E-A581-4A57-AA1E-BE11A223BA9A}"/>
+    <hyperlink ref="B17" r:id="rId10" xr:uid="{9D13D61E-FF16-4F85-84D2-9B2CBB4C22DA}"/>
+    <hyperlink ref="B18" r:id="rId11" xr:uid="{0920B072-0C14-4E72-BF95-3C5FEF2771AA}"/>
+    <hyperlink ref="B19" r:id="rId12" location="wb-cont" xr:uid="{BA154FE7-F49C-48E7-B1EC-4ADBA32E892D}"/>
+    <hyperlink ref="B20" r:id="rId13" xr:uid="{4F0C8372-3E5B-4527-BAB8-561D7DD06B7B}"/>
+    <hyperlink ref="B21" r:id="rId14" xr:uid="{BB0EE0E7-B9DB-4C2F-AB2C-12FFE1D13BA1}"/>
+    <hyperlink ref="B24" r:id="rId15" location="wb-cont" xr:uid="{061F4F62-8345-4D6A-87BE-B514D261DF6B}"/>
+    <hyperlink ref="B26" r:id="rId16" xr:uid="{71ADF60C-A0D7-4151-8BF3-C448A4BC19B0}"/>
+    <hyperlink ref="B27" r:id="rId17" xr:uid="{78BCBDCB-DE08-4D98-9A91-28445959511D}"/>
+    <hyperlink ref="B28" r:id="rId18" xr:uid="{DCB0D89C-8D87-47FD-B15A-9092C5037969}"/>
+    <hyperlink ref="B29" r:id="rId19" location="economic" xr:uid="{D5F94BC3-4851-4A39-8905-38920970250B}"/>
+    <hyperlink ref="B30" r:id="rId20" xr:uid="{21616F54-A1AF-4421-A58E-E41262BC0AD4}"/>
+    <hyperlink ref="B31" r:id="rId21" xr:uid="{3C8AEFAD-FD43-433B-ACA0-75052490EEC9}"/>
+    <hyperlink ref="B32" r:id="rId22" xr:uid="{E167EFFF-EE7C-41C1-AABD-87C246581AB7}"/>
+    <hyperlink ref="B33" r:id="rId23" xr:uid="{F9BB21FD-8802-4990-9EB9-D5D3DA25899C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>